--- a/data/trans_orig/IQ17A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IQ17A-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D6A8BEF-F742-43BC-889B-C5F1768DAC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0A29004-EE3C-4597-8349-3C49AF330B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1CCED705-FB22-4FF2-8B15-C855BFACEB3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AF6D70D5-173F-45A6-AA65-22E9A05010AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -89,1618 +89,1618 @@
     <t>1,04%</t>
   </si>
   <si>
-    <t>5,32%</t>
+    <t>4,56%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>3,56%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,49%</t>
   </si>
   <si>
-    <t>8,16%</t>
+    <t>7,99%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>80,46%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2016 (Tasa respuesta: 20,46%)</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
     <t>3,87%</t>
   </si>
   <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>62,01%</t>
+  </si>
+  <si>
+    <t>88,63%</t>
   </si>
   <si>
     <t>83,64%</t>
   </si>
   <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>87,07%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
   </si>
   <si>
     <t>3,93%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2012 (Tasa respuesta: 22,63%)</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>75,63%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>78,86%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2015 (Tasa respuesta: 20,46%)</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>81,64%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>Número de veces que el menor ha necesitado una consulta médica en las últimas 2 semanas en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
     <t>92,84%</t>
   </si>
   <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
   </si>
   <si>
     <t>91,48%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
 </sst>
 </file>
@@ -2112,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4478C59-24ED-481A-87EF-EB18383433CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936AB5C2-7F47-4B31-8089-5C54AD39DDD4}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3036,10 +3036,10 @@
         <v>62</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,13 +3054,13 @@
         <v>55836</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H20" s="7">
         <v>71</v>
@@ -3069,13 +3069,13 @@
         <v>46962</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M20" s="7">
         <v>154</v>
@@ -3084,13 +3084,13 @@
         <v>102798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,7 +3146,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -3164,7 +3164,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3179,7 +3179,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -3194,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3230,7 +3230,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3245,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3296,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,7 +3317,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3398,7 +3398,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,28 +3413,28 @@
         <v>2092</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -3443,13 +3443,13 @@
         <v>2092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3464,13 @@
         <v>1351</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3479,13 +3479,13 @@
         <v>989</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3494,13 +3494,13 @@
         <v>2340</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,13 +3515,13 @@
         <v>23357</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -3530,13 +3530,13 @@
         <v>18749</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M29" s="7">
         <v>63</v>
@@ -3545,13 +3545,13 @@
         <v>42106</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3607,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
@@ -3625,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -3640,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3676,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -3691,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3721,28 +3721,28 @@
         <v>695</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -3751,13 +3751,13 @@
         <v>695</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3778,7 +3778,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M34" s="7">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,7 +3829,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -3844,7 +3844,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -3895,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3925,13 @@
         <v>1973</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H37" s="7">
         <v>4</v>
@@ -3940,13 +3940,13 @@
         <v>2725</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M37" s="7">
         <v>7</v>
@@ -3955,13 +3955,13 @@
         <v>4698</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3976,13 @@
         <v>30524</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H38" s="7">
         <v>24</v>
@@ -3991,13 +3991,13 @@
         <v>15914</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M38" s="7">
         <v>70</v>
@@ -4006,13 +4006,13 @@
         <v>46438</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -4116,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,7 +4152,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4182,13 +4182,13 @@
         <v>695</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4197,13 +4197,13 @@
         <v>448</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -4212,13 +4212,13 @@
         <v>1143</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M43" s="7">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>11</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,13 +4284,13 @@
         <v>1310</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -4299,13 +4299,13 @@
         <v>641</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" s="7">
         <v>3</v>
@@ -4314,13 +4314,13 @@
         <v>1951</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4335,13 +4335,13 @@
         <v>4163</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -4356,7 +4356,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
@@ -4365,13 +4365,13 @@
         <v>4163</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,13 +4386,13 @@
         <v>9621</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H46" s="7">
         <v>17</v>
@@ -4401,13 +4401,13 @@
         <v>10763</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M46" s="7">
         <v>31</v>
@@ -4416,13 +4416,13 @@
         <v>20384</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4437,13 +4437,13 @@
         <v>145405</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H47" s="7">
         <v>178</v>
@@ -4452,13 +4452,13 @@
         <v>118670</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M47" s="7">
         <v>396</v>
@@ -4467,13 +4467,13 @@
         <v>264076</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,7 +4529,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4549,7 +4549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F69895CC-9A9F-4401-8EF6-54344725A82F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1F6A5E9-C186-4975-BED0-E14922742B6C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4566,7 +4566,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4679,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4694,7 +4694,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4709,7 +4709,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,7 +4730,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4745,7 +4745,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4781,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -4790,13 +4790,13 @@
         <v>480</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4805,13 +4805,13 @@
         <v>480</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4832,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4847,7 +4847,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -4862,7 +4862,7 @@
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4883,7 +4883,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4913,7 +4913,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,10 +4928,10 @@
         <v>2619</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>170</v>
+        <v>16</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>172</v>
@@ -5374,7 +5374,7 @@
         <v>10</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5389,13 @@
         <v>628</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5419,13 +5419,13 @@
         <v>628</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5440,13 +5440,13 @@
         <v>10410</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -5455,13 +5455,13 @@
         <v>6625</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>24</v>
@@ -5470,13 +5470,13 @@
         <v>17036</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5491,13 @@
         <v>54769</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>66</v>
@@ -5506,13 +5506,13 @@
         <v>46816</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M20" s="7">
         <v>143</v>
@@ -5521,13 +5521,13 @@
         <v>101585</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5583,7 +5583,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -5601,37 +5601,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,37 +5652,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,37 +5703,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,37 +5754,37 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5805,37 +5805,37 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,7 +5856,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H27" s="7">
         <v>1</v>
@@ -5871,7 +5871,7 @@
         <v>10</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M27" s="7">
         <v>3</v>
@@ -5880,13 +5880,13 @@
         <v>2005</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>232</v>
+        <v>88</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5901,13 +5901,13 @@
         <v>654</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H28" s="7">
         <v>4</v>
@@ -5916,13 +5916,13 @@
         <v>3279</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M28" s="7">
         <v>5</v>
@@ -5931,13 +5931,13 @@
         <v>3933</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5952,13 +5952,13 @@
         <v>17871</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H29" s="7">
         <v>33</v>
@@ -5967,13 +5967,13 @@
         <v>23009</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M29" s="7">
         <v>59</v>
@@ -5982,13 +5982,13 @@
         <v>40881</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,7 +6044,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
@@ -6062,7 +6062,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -6077,22 +6077,22 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,7 +6113,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6128,22 +6128,22 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,7 +6164,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -6179,22 +6179,22 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>0</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="7">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,7 +6215,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -6230,22 +6230,22 @@
         <v>11</v>
       </c>
       <c r="L34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6260,13 +6260,13 @@
         <v>624</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -6281,7 +6281,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M35" s="7">
         <v>1</v>
@@ -6290,13 +6290,13 @@
         <v>624</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>86</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,7 +6317,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -6326,13 +6326,13 @@
         <v>656</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M36" s="7">
         <v>1</v>
@@ -6341,13 +6341,13 @@
         <v>656</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6362,13 +6362,13 @@
         <v>3840</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>2</v>
@@ -6383,7 +6383,7 @@
         <v>10</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -6392,13 +6392,13 @@
         <v>5105</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>178</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6413,13 +6413,13 @@
         <v>20946</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -6428,13 +6428,13 @@
         <v>18281</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M38" s="7">
         <v>57</v>
@@ -6443,13 +6443,13 @@
         <v>39228</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,22 +6538,22 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,22 +6589,22 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+      <c r="N41" s="7">
+        <v>0</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="M41" s="7">
-        <v>0</v>
-      </c>
-      <c r="N41" s="7">
-        <v>0</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,13 +6634,13 @@
         <v>480</v>
       </c>
       <c r="J42" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -6649,13 +6649,13 @@
         <v>480</v>
       </c>
       <c r="O42" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q42" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -6691,22 +6691,22 @@
         <v>11</v>
       </c>
       <c r="L43" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="7">
+        <v>0</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="M43" s="7">
-        <v>0</v>
-      </c>
-      <c r="N43" s="7">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,14 +6721,14 @@
         <v>1321</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>279</v>
-      </c>
       <c r="H44" s="7">
         <v>0</v>
       </c>
@@ -6742,7 +6742,7 @@
         <v>11</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -6751,13 +6751,13 @@
         <v>1321</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,13 +6772,13 @@
         <v>4574</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>280</v>
+        <v>51</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>27</v>
+        <v>279</v>
       </c>
       <c r="H45" s="7">
         <v>9</v>
@@ -6787,13 +6787,13 @@
         <v>6080</v>
       </c>
       <c r="J45" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K45" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M45" s="7">
         <v>15</v>
@@ -6838,13 +6838,13 @@
         <v>15194</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>209</v>
+        <v>289</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M46" s="7">
         <v>57</v>
@@ -6853,13 +6853,13 @@
         <v>39830</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>293</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -6910,7 +6910,7 @@
         <v>301</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -6966,7 +6966,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -6986,7 +6986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88AF0635-77DC-4971-9834-AE771BAA0A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B2C132-5C88-4C6D-8818-013DEE11EFD8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7278,13 +7278,13 @@
         <v>536</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -7293,13 +7293,13 @@
         <v>536</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>54</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7314,13 @@
         <v>652</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -7344,13 +7344,13 @@
         <v>652</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7416,13 +7416,13 @@
         <v>6492</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7431,10 +7431,10 @@
         <v>5488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>76</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>317</v>
@@ -7452,7 +7452,7 @@
         <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>213</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7467,13 +7467,13 @@
         <v>35542</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
@@ -7482,13 +7482,13 @@
         <v>38413</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>116</v>
@@ -7497,13 +7497,13 @@
         <v>73956</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7577,7 +7577,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -7592,7 +7592,7 @@
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7628,7 +7628,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -7637,13 +7637,13 @@
         <v>586</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -7652,7 +7652,7 @@
         <v>586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>333</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>10</v>
@@ -7679,7 +7679,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -7709,7 +7709,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7730,7 +7730,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7745,7 +7745,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7760,7 +7760,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,7 +7781,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -7796,7 +7796,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -7811,7 +7811,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,7 +7832,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
@@ -7862,7 +7862,7 @@
         <v>10</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7877,13 +7877,13 @@
         <v>4523</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -7892,13 +7892,13 @@
         <v>1894</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -7907,13 +7907,13 @@
         <v>6417</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7928,13 +7928,13 @@
         <v>44424</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H20" s="7">
         <v>64</v>
@@ -7943,13 +7943,13 @@
         <v>39880</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="M20" s="7">
         <v>130</v>
@@ -7958,13 +7958,13 @@
         <v>84304</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,7 +8020,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -8038,37 +8038,37 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H22" s="7">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
+        <v>0</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M22" s="7">
-        <v>0</v>
-      </c>
-      <c r="N22" s="7">
-        <v>0</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,37 +8089,37 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" s="7">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="7">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,37 +8140,37 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H24" s="7">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
+        <v>0</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,37 +8191,37 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="7">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,37 +8242,37 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>0</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M26" s="7">
-        <v>0</v>
-      </c>
-      <c r="N26" s="7">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,37 +8293,37 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L27" s="7" t="s">
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>0</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="7">
-        <v>0</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,7 +8338,7 @@
         <v>1357</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
@@ -8374,7 +8374,7 @@
         <v>365</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>366</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8389,13 +8389,13 @@
         <v>33729</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>368</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -8404,13 +8404,13 @@
         <v>28901</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M29" s="7">
         <v>89</v>
@@ -8419,13 +8419,13 @@
         <v>62632</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8481,7 +8481,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
@@ -8499,37 +8499,37 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H31" s="7">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>0</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="M31" s="7">
-        <v>0</v>
-      </c>
-      <c r="N31" s="7">
-        <v>0</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8550,37 +8550,37 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="7">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8601,7 +8601,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H33" s="7">
         <v>1</v>
@@ -8610,13 +8610,13 @@
         <v>657</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M33" s="7">
         <v>1</v>
@@ -8625,13 +8625,13 @@
         <v>657</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8652,37 +8652,37 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8703,7 +8703,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H35" s="7">
         <v>1</v>
@@ -8814,13 +8814,13 @@
         <v>3453</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>293</v>
+        <v>391</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M37" s="7">
         <v>6</v>
@@ -8829,13 +8829,13 @@
         <v>4143</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8850,13 +8850,13 @@
         <v>17292</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H38" s="7">
         <v>26</v>
@@ -8865,13 +8865,13 @@
         <v>17455</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M38" s="7">
         <v>49</v>
@@ -8880,13 +8880,13 @@
         <v>34747</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>65</v>
+        <v>402</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8960,7 +8960,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -8975,7 +8975,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -8990,7 +8990,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9011,7 +9011,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H41" s="7">
         <v>1</v>
@@ -9020,13 +9020,13 @@
         <v>586</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="M41" s="7">
         <v>1</v>
@@ -9035,13 +9035,13 @@
         <v>586</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9062,7 +9062,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -9071,13 +9071,13 @@
         <v>657</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -9086,13 +9086,13 @@
         <v>657</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -9113,7 +9113,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -9122,13 +9122,13 @@
         <v>536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M43" s="7">
         <v>1</v>
@@ -9137,13 +9137,13 @@
         <v>536</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -9158,13 +9158,13 @@
         <v>652</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="H44" s="7">
         <v>1</v>
@@ -9173,13 +9173,13 @@
         <v>617</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M44" s="7">
         <v>2</v>
@@ -9188,13 +9188,13 @@
         <v>1270</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P44" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>19</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -9209,13 +9209,13 @@
         <v>764</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>418</v>
+        <v>226</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -9224,13 +9224,13 @@
         <v>1452</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -9242,10 +9242,10 @@
         <v>21</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>10</v>
+        <v>423</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>421</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -9260,13 +9260,13 @@
         <v>13062</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="H46" s="7">
         <v>22</v>
@@ -9275,13 +9275,13 @@
         <v>14666</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>426</v>
+        <v>306</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M46" s="7">
         <v>43</v>
@@ -9290,7 +9290,7 @@
         <v>27729</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>428</v>
+        <v>213</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>429</v>
@@ -9403,7 +9403,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -9423,7 +9423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3D1163-6451-4224-B4D6-69BB6FAB8A22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D620F93A-622B-4005-82DC-FED9549BC191}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9553,7 +9553,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -9583,7 +9583,7 @@
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9604,7 +9604,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9655,7 +9655,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -9685,7 +9685,7 @@
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9700,13 +9700,13 @@
         <v>565</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>177</v>
+        <v>442</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -9730,13 +9730,13 @@
         <v>565</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9757,7 +9757,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -9787,7 +9787,7 @@
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,7 +9808,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -9838,7 +9838,7 @@
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9853,13 +9853,13 @@
         <v>364</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -9868,13 +9868,13 @@
         <v>2812</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -9883,13 +9883,13 @@
         <v>3176</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9904,13 +9904,13 @@
         <v>16742</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>454</v>
+        <v>348</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H11" s="7">
         <v>27</v>
@@ -9940,7 +9940,7 @@
         <v>459</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>460</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -10008,28 +10008,28 @@
         <v>838</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>463</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -10044,7 +10044,7 @@
         <v>10</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -10065,7 +10065,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -10080,7 +10080,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -10095,7 +10095,7 @@
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -10110,14 +10110,14 @@
         <v>1113</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="H15" s="7">
         <v>0</v>
       </c>
@@ -10131,7 +10131,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M15" s="7">
         <v>1</v>
@@ -10140,13 +10140,13 @@
         <v>1113</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,7 +10167,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -10182,7 +10182,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -10197,7 +10197,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,7 +10218,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -10233,7 +10233,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -10248,7 +10248,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -10263,14 +10263,14 @@
         <v>1929</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>471</v>
-      </c>
       <c r="H18" s="7">
         <v>0</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M18" s="7">
         <v>4</v>
@@ -10293,13 +10293,13 @@
         <v>1929</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>132</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>472</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -10314,13 +10314,13 @@
         <v>2199</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>474</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>472</v>
       </c>
       <c r="H19" s="7">
         <v>2</v>
@@ -10329,13 +10329,13 @@
         <v>1234</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -10344,13 +10344,13 @@
         <v>3433</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>477</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>478</v>
+        <v>346</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -10365,13 +10365,13 @@
         <v>26535</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -10380,13 +10380,13 @@
         <v>26716</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>84</v>
@@ -10395,13 +10395,13 @@
         <v>53251</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -10457,7 +10457,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="5">
         <v>10</v>
@@ -10475,7 +10475,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -10490,7 +10490,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -10505,7 +10505,7 @@
         <v>11</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10526,7 +10526,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -10556,7 +10556,7 @@
         <v>11</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -10577,7 +10577,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10628,7 +10628,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -10643,7 +10643,7 @@
         <v>11</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -10658,7 +10658,7 @@
         <v>11</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10673,13 +10673,13 @@
         <v>944</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -10694,7 +10694,7 @@
         <v>10</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -10703,13 +10703,13 @@
         <v>1721</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10730,7 +10730,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -10745,7 +10745,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -10760,7 +10760,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10775,13 +10775,13 @@
         <v>1051</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>207</v>
+        <v>492</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -10790,13 +10790,13 @@
         <v>1595</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -10805,13 +10805,13 @@
         <v>2646</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>498</v>
+        <v>312</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>336</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10826,13 +10826,13 @@
         <v>33064</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>500</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>501</v>
       </c>
       <c r="H29" s="7">
         <v>38</v>
@@ -10841,13 +10841,13 @@
         <v>28097</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>504</v>
       </c>
       <c r="M29" s="7">
         <v>79</v>
@@ -10856,13 +10856,13 @@
         <v>61161</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10918,7 +10918,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" s="5">
         <v>10</v>
@@ -10936,7 +10936,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>0</v>
@@ -10951,7 +10951,7 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M31" s="7">
         <v>0</v>
@@ -10966,7 +10966,7 @@
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10987,7 +10987,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -11002,7 +11002,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -11017,7 +11017,7 @@
         <v>11</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -11038,7 +11038,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>11</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M33" s="7">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>11</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -11089,7 +11089,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -11098,13 +11098,13 @@
         <v>733</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>508</v>
+        <v>144</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>1</v>
@@ -11113,13 +11113,13 @@
         <v>733</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -11140,7 +11140,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H35" s="7">
         <v>0</v>
@@ -11155,7 +11155,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M35" s="7">
         <v>0</v>
@@ -11170,7 +11170,7 @@
         <v>11</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -11191,7 +11191,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -11206,7 +11206,7 @@
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>11</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -11236,13 +11236,13 @@
         <v>3137</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>512</v>
+        <v>411</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -11257,7 +11257,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M37" s="7">
         <v>3</v>
@@ -11266,13 +11266,13 @@
         <v>3137</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>306</v>
+        <v>510</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -11287,13 +11287,13 @@
         <v>37944</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H38" s="7">
         <v>36</v>
@@ -11302,13 +11302,13 @@
         <v>24440</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M38" s="7">
         <v>86</v>
@@ -11317,13 +11317,13 @@
         <v>62384</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -11391,13 +11391,13 @@
         <v>838</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>145</v>
+        <v>521</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -11412,7 +11412,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M40" s="7">
         <v>1</v>
@@ -11421,13 +11421,13 @@
         <v>838</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P40" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>53</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -11448,7 +11448,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>526</v>
+        <v>409</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -11463,7 +11463,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
@@ -11478,7 +11478,7 @@
         <v>11</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -11493,13 +11493,13 @@
         <v>1113</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>227</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M42" s="7">
         <v>1</v>
@@ -11523,13 +11523,13 @@
         <v>1113</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -11544,13 +11544,13 @@
         <v>565</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>387</v>
+        <v>527</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -11559,13 +11559,13 @@
         <v>733</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="M43" s="7">
         <v>2</v>
@@ -11574,13 +11574,13 @@
         <v>1298</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>142</v>
+        <v>530</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>53</v>
+        <v>531</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -11595,7 +11595,7 @@
         <v>944</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>10</v>
@@ -11610,7 +11610,7 @@
         <v>777</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>10</v>
@@ -11631,7 +11631,7 @@
         <v>10</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>493</v>
+        <v>535</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -11646,13 +11646,13 @@
         <v>1929</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -11667,7 +11667,7 @@
         <v>11</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M45" s="7">
         <v>4</v>
@@ -11676,13 +11676,13 @@
         <v>1929</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>136</v>
+        <v>412</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>474</v>
+        <v>538</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -11697,13 +11697,13 @@
         <v>6751</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -11712,13 +11712,13 @@
         <v>5641</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>381</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="M46" s="7">
         <v>19</v>
@@ -11727,10 +11727,10 @@
         <v>12392</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>542</v>
+        <v>141</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>543</v>
+        <v>234</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>544</v>
@@ -11840,7 +11840,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
